--- a/CryoGrid/CryoGridCommunity_results/bayesopt_results_MON1.xlsx
+++ b/CryoGrid/CryoGridCommunity_results/bayesopt_results_MON1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="186" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="222" uniqueCount="13">
   <si>
     <t>Iteration</t>
   </si>
@@ -110,9 +110,9 @@
     <col min="5" max="5" width="17" customWidth="true"/>
     <col min="6" max="6" width="19.42578125" customWidth="true"/>
     <col min="7" max="7" width="12.28515625" customWidth="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true"/>
+    <col min="8" max="8" width="13.7109375" customWidth="true"/>
     <col min="9" max="9" width="13.7109375" customWidth="true"/>
-    <col min="10" max="10" width="14.7109375" customWidth="true"/>
+    <col min="10" max="10" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -158,28 +158,28 @@
         <v>3</v>
       </c>
       <c r="D2" s="0">
-        <v>-38.400000000000006</v>
+        <v>-47.200000000000003</v>
       </c>
       <c r="E2" s="0"/>
       <c r="F2" s="0">
-        <v>-38.400000000000006</v>
+        <v>-47.200000000000003</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="0">
-        <v>0.32799484427775139</v>
+        <v>0.49782812780356078</v>
       </c>
       <c r="I2" s="0">
-        <v>0.11135340110102245</v>
+        <v>0.4062696080437419</v>
       </c>
       <c r="J2" s="0">
-        <v>0.6110629390273955</v>
+        <v>0.48665956450759856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="0">
         <v>8</v>
@@ -188,28 +188,28 @@
         <v>3</v>
       </c>
       <c r="D3" s="0">
-        <v>-37.600000000000001</v>
+        <v>-47.200000000000003</v>
       </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0">
-        <v>-38.400000000000006</v>
+        <v>-47.200000000000003</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="H3" s="0">
-        <v>0.32901783436801613</v>
+        <v>1.0936890868282563</v>
       </c>
       <c r="I3" s="0">
-        <v>0.42465242660136815</v>
+        <v>0.52968928668477566</v>
       </c>
       <c r="J3" s="0">
-        <v>0.1276398766644872</v>
+        <v>0.39669952206598796</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0">
         <v>8</v>
@@ -218,28 +218,28 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-16.800000000000001</v>
+        <v>-47.200000000000003</v>
       </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0">
-        <v>-38.400000000000006</v>
+        <v>-47.200000000000003</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="0">
-        <v>0.15947501602433903</v>
+        <v>1.0936890868282563</v>
       </c>
       <c r="I4" s="0">
-        <v>0.43206042426686458</v>
+        <v>0.52968928668477566</v>
       </c>
       <c r="J4" s="0">
-        <v>0.30274682237262812</v>
+        <v>0.39669952206598796</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0">
         <v>8</v>
@@ -248,28 +248,28 @@
         <v>3</v>
       </c>
       <c r="D5" s="0">
-        <v>-49.600000000000001</v>
+        <v>-48.800000000000004</v>
       </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0">
-        <v>-49.600000000000001</v>
+        <v>-48.800000000000004</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="0">
-        <v>0.92100018878090939</v>
+        <v>1.181359437926748</v>
       </c>
       <c r="I5" s="0">
-        <v>0.20957789758672701</v>
+        <v>0.067205378687909836</v>
       </c>
       <c r="J5" s="0">
-        <v>0.17344243893044364</v>
+        <v>0.68802191628728926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" s="0">
         <v>8</v>
@@ -288,18 +288,18 @@
         <v>3</v>
       </c>
       <c r="H6" s="0">
-        <v>1.1396675031028591</v>
+        <v>1.181359437926748</v>
       </c>
       <c r="I6" s="0">
-        <v>0.16943040435970136</v>
+        <v>0.067205378687909836</v>
       </c>
       <c r="J6" s="0">
-        <v>0.2281559977904935</v>
+        <v>0.68802191628728926</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0">
         <v>8</v>
@@ -308,7 +308,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>-16.800000000000001</v>
+        <v>-49.600000000000001</v>
       </c>
       <c r="E7" s="0"/>
       <c r="F7" s="0">
@@ -318,18 +318,18 @@
         <v>3</v>
       </c>
       <c r="H7" s="0">
-        <v>0.15458653883284188</v>
+        <v>0.81288935844146215</v>
       </c>
       <c r="I7" s="0">
-        <v>0.44809230781366077</v>
+        <v>0.48566544174909315</v>
       </c>
       <c r="J7" s="0">
-        <v>0.28455753777255766</v>
+        <v>0.6874499523968628</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B8" s="0">
         <v>8</v>
@@ -338,7 +338,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="0">
-        <v>-46.400000000000006</v>
+        <v>-40</v>
       </c>
       <c r="E8" s="0"/>
       <c r="F8" s="0">
@@ -348,18 +348,18 @@
         <v>3</v>
       </c>
       <c r="H8" s="0">
-        <v>0.46034428794315285</v>
+        <v>0.35282568648548157</v>
       </c>
       <c r="I8" s="0">
-        <v>0.28584519363054967</v>
+        <v>0.50813390051494534</v>
       </c>
       <c r="J8" s="0">
-        <v>0.45717708974095644</v>
+        <v>0.073974240930933854</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="0">
         <v>8</v>
@@ -368,7 +368,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="0">
-        <v>-49.600000000000001</v>
+        <v>-48.800000000000004</v>
       </c>
       <c r="E9" s="0"/>
       <c r="F9" s="0">
@@ -378,13 +378,13 @@
         <v>3</v>
       </c>
       <c r="H9" s="0">
-        <v>1.1396675031028591</v>
+        <v>0.99767385091727534</v>
       </c>
       <c r="I9" s="0">
-        <v>0.16943040435970136</v>
+        <v>0.38954505945686929</v>
       </c>
       <c r="J9" s="0">
-        <v>0.2281559977904935</v>
+        <v>0.6338666319655698</v>
       </c>
     </row>
     <row r="10">
@@ -398,25 +398,25 @@
         <v>4</v>
       </c>
       <c r="D10" s="0">
-        <v>-49.600000000000001</v>
+        <v>-47.200000000000003</v>
       </c>
       <c r="E10" s="0">
-        <v>1654.7751767499999</v>
+        <v>1550.1412127916667</v>
       </c>
       <c r="F10" s="0">
-        <v>-49.600000000000001</v>
+        <v>-47.200000000000003</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="0">
-        <v>1.1396675031028591</v>
+        <v>1.0936890868282563</v>
       </c>
       <c r="I10" s="0">
-        <v>0.16943040435970136</v>
+        <v>0.52968928668477566</v>
       </c>
       <c r="J10" s="0">
-        <v>0.2281559977904935</v>
+        <v>0.39669952206598796</v>
       </c>
     </row>
     <row r="11">
@@ -433,22 +433,22 @@
         <v>-48.800000000000004</v>
       </c>
       <c r="E11" s="0">
-        <v>75.922148666666672</v>
+        <v>84.321910958333334</v>
       </c>
       <c r="F11" s="0">
-        <v>-49.600000000000001</v>
+        <v>-48.800000000000004</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="0">
-        <v>0.92100018878090939</v>
+        <v>1.181359437926748</v>
       </c>
       <c r="I11" s="0">
-        <v>0.20957789758672701</v>
+        <v>0.067205378687909836</v>
       </c>
       <c r="J11" s="0">
-        <v>0.17344243893044364</v>
+        <v>0.68802191628728926</v>
       </c>
     </row>
     <row r="12">
@@ -462,25 +462,25 @@
         <v>4</v>
       </c>
       <c r="D12" s="0">
-        <v>-46.400000000000006</v>
+        <v>-48.800000000000004</v>
       </c>
       <c r="E12" s="0">
-        <v>385.91640749999999</v>
+        <v>12.172907541666667</v>
       </c>
       <c r="F12" s="0">
-        <v>-49.600000000000001</v>
+        <v>-48.800000000000004</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="0">
-        <v>0.46034428794315285</v>
+        <v>0.99767385091727534</v>
       </c>
       <c r="I12" s="0">
-        <v>0.28584519363054967</v>
+        <v>0.38954505945686929</v>
       </c>
       <c r="J12" s="0">
-        <v>0.45717708974095644</v>
+        <v>0.6338666319655698</v>
       </c>
     </row>
     <row r="13">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="0">
-        <v>-38.400000000000006</v>
+        <v>-49.600000000000001</v>
       </c>
       <c r="E13" s="0">
-        <v>125.80955133333333</v>
+        <v>90.518051958333331</v>
       </c>
       <c r="F13" s="0">
         <v>-49.600000000000001</v>
@@ -506,13 +506,13 @@
         <v>9</v>
       </c>
       <c r="H13" s="0">
-        <v>0.32901783436801613</v>
+        <v>0.81288935844146215</v>
       </c>
       <c r="I13" s="0">
-        <v>0.42465242660136815</v>
+        <v>0.48566544174909315</v>
       </c>
       <c r="J13" s="0">
-        <v>0.1276398766644872</v>
+        <v>0.6874499523968628</v>
       </c>
     </row>
     <row r="14">
@@ -526,10 +526,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="0">
-        <v>-39.200000000000003</v>
+        <v>-47.200000000000003</v>
       </c>
       <c r="E14" s="0">
-        <v>230.00483745833333</v>
+        <v>185.3418795</v>
       </c>
       <c r="F14" s="0">
         <v>-49.600000000000001</v>
@@ -538,13 +538,13 @@
         <v>9</v>
       </c>
       <c r="H14" s="0">
-        <v>0.32799484427775139</v>
+        <v>0.49782812780356078</v>
       </c>
       <c r="I14" s="0">
-        <v>0.11135340110102245</v>
+        <v>0.4062696080437419</v>
       </c>
       <c r="J14" s="0">
-        <v>0.6110629390273955</v>
+        <v>0.48665956450759856</v>
       </c>
     </row>
     <row r="15">
